--- a/max_Dating.xlsx
+++ b/max_Dating.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>genderLooking</t>
   </si>
@@ -124,9 +124,6 @@
     <t>userId</t>
   </si>
   <si>
-    <t>isSystemProfile</t>
-  </si>
-  <si>
     <t>locked</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t xml:space="preserve"> Death and life have determined appointments Riches and honor depend upon heaven </t>
   </si>
   <si>
-    <t>CRYz85gMyTETN5FonrExXNHyDuwarWygCPnUrwnan7Uet6hfUS6oXyQ</t>
+    <t>CRYz85gM+yTETN5FonrExXNHyDuwarWygCPnUrwnan7Uet6hf+US6oXyQ==</t>
   </si>
 </sst>
 </file>
@@ -509,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -541,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -621,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -629,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -637,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -773,7 +770,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -797,7 +794,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -805,7 +802,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -813,14 +810,6 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39">
         <v>1</v>
       </c>
     </row>
